--- a/uipath/bid to bid/STI_bidtobid/sti.xlsx
+++ b/uipath/bid to bid/STI_bidtobid/sti.xlsx
@@ -386,7 +386,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>0.0127848002</x:v>
+        <x:v>-0.0056433626</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -411,7 +411,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>84.53570891</x:v>
+        <x:v>85.6164810582</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -436,7 +436,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -461,7 +461,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>87.29009283</x:v>
+        <x:v>86.58029997</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -486,7 +486,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>83.00103192</x:v>
+        <x:v>83.04183597</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -511,7 +511,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>105.96073</x:v>
+        <x:v>105.7293946</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -536,7 +536,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>103.5486635</x:v>
+        <x:v>103.5772962</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -561,7 +561,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44056</x:v>
+        <x:v>44057</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -586,7 +586,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44056</x:v>
+        <x:v>44057</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/uipath/bid to bid/STI_bidtobid/sti.xlsx
+++ b/uipath/bid to bid/STI_bidtobid/sti.xlsx
@@ -386,7 +386,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>-0.0056433626</x:v>
+        <x:v>-0.0032898446</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -411,7 +411,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>85.6164810582</x:v>
+        <x:v>84.811096374</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -436,7 +436,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>405</x:v>
+        <x:v>407</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -461,7 +461,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>86.58029997</x:v>
+        <x:v>87.1666925</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -486,7 +486,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>83.04183597</x:v>
+        <x:v>84.94318906</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -511,7 +511,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>105.7293946</x:v>
+        <x:v>105.7527571</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -536,7 +536,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>103.5772962</x:v>
+        <x:v>102.5055211</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -561,7 +561,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44057</x:v>
+        <x:v>44061</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -586,7 +586,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44057</x:v>
+        <x:v>44061</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
